--- a/HDB/LC.xlsx
+++ b/HDB/LC.xlsx
@@ -1648,227 +1648,227 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>897255</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1296859</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1220510</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>1352056</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1729095</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>1732721</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>2030816</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1937211</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2442611</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2553457</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>3391425</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3454647</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>3771546</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3705612</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4122</t>
+          <t>4122072</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>3736808</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>4754</t>
+          <t>4754400</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>4022901</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4553129</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4502361</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>4842033</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>5236881</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>5608</t>
+          <t>5607907</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>5302148</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>5958986</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6140943</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>6043</t>
+          <t>6043233</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>6130875</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6398288</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>6703</t>
+          <t>6703312</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>7052</t>
+          <t>7051925</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>7008161</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7577</t>
+          <t>7576509</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>8250</t>
+          <t>8250414</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>9743</t>
+          <t>9742788</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>9989533</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>12375492</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>13581</t>
+          <t>13581419</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>14420</t>
+          <t>14419840</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>14113</t>
+          <t>14113410</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>13679</t>
+          <t>13679267</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>14850</t>
+          <t>14850118</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>16133</t>
+          <t>16133373</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>14066</t>
+          <t>14066302</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>17351</t>
+          <t>17351007</t>
         </is>
       </c>
     </row>
@@ -1883,227 +1883,227 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1094</t>
+          <t>-1093686</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1088</t>
+          <t>-1087867</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1274</t>
+          <t>-1274379</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-1028</t>
+          <t>-1027960</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-1045</t>
+          <t>-1045238</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-1188</t>
+          <t>-1188413</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-774</t>
+          <t>-773804</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-1171</t>
+          <t>-1170513</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-1640</t>
+          <t>-1639565</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-1448</t>
+          <t>-1448128</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-1666</t>
+          <t>-1666184</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1734</t>
+          <t>-1734445</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2236</t>
+          <t>-2236242</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-2159</t>
+          <t>-2158977</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-2248</t>
+          <t>-2248407</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2167</t>
+          <t>-2167071</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-2194</t>
+          <t>-2193880</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-2423</t>
+          <t>-2422594</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-1999</t>
+          <t>-1998849</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-2226</t>
+          <t>-2225703</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-2493</t>
+          <t>-2493475</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-2667</t>
+          <t>-2667338</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-2319</t>
+          <t>-2319305</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-1995</t>
+          <t>-1995321</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-2832</t>
+          <t>-2832475</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-2576</t>
+          <t>-2575520</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-2637</t>
+          <t>-2637128</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-2610</t>
+          <t>-2609661</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>-3246</t>
+          <t>-3246279</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-3233</t>
+          <t>-3232769</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>-3214</t>
+          <t>-3213993</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-3068</t>
+          <t>-3068324</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-3507</t>
+          <t>-3506798</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-3396</t>
+          <t>-3396006</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-4349</t>
+          <t>-4348503</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-4037</t>
+          <t>-4037360</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>-6425</t>
+          <t>-6425216</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>-6618</t>
+          <t>-6617685</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>-8522</t>
+          <t>-8522400</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>-8137</t>
+          <t>-8137461</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>-8404</t>
+          <t>-8404321</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>-6521</t>
+          <t>-6521043</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>-6439</t>
+          <t>-6438694</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>-5512</t>
+          <t>-5511782</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>-6852</t>
+          <t>-6851670</t>
         </is>
       </c>
     </row>
@@ -2118,227 +2118,227 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9873</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42004</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34119</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249631</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63252</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27281</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26410</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44532</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11251</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26480</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36058</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34942</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77112</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107193</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116803</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115441</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98211</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>141111</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135453</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158522</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175587</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>156082</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209344</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207844</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289541</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>312137</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465641</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333978</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432814</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>623674</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>884917</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>560555</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>723648</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>597334</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>853430</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>291180</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>854294</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>333479</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>428781</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>605463</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>321064</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>756665</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1184539</t>
         </is>
       </c>
     </row>
@@ -2353,227 +2353,227 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6586</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1102404</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13378</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>429230</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32887</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30001</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52149</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88413</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9982</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>538575</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109568</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128492</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354950</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11353</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197693</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>270402</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115801</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>190463</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155910</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>125306</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106178</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74677</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237100</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42153</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>126155</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130213</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>448073</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150402</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43260</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110494</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>326317</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92285</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77760</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-270847</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124593</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>302493</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705390</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>522358</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>639199</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>263226</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126533</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399872</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>623318</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642956</t>
         </is>
       </c>
     </row>
@@ -2588,227 +2588,227 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171645</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-24286</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9283</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13242</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15063</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7677</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27976</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26928</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25680</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30865</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40269</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1043</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29965</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17649</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23971</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64104</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29950</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118990</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15031</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21541</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82545</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84270</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17985</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70233</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32574</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77443</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11498</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35697</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14618</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1563</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31186</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21386</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21819</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36818</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64485</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45528</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49432</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-70569</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7853</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29461</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84293</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164152</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>419650</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>-371</t>
+          <t>-370683</t>
         </is>
       </c>
     </row>
@@ -2823,223 +2823,227 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8036</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9138</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21460</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9975</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>606</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>6232</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17658</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2513</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73862</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54402</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56120</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57591</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16479</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63288</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48426</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45764</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32392</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46953</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53575</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56096</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37493</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57505</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40825</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212203</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44256</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72210</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56586</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71422</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86802</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>102102</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127227</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121103</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71100</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63428</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71758</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84569</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95060</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70697</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>85170</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82179</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78515</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119251</t>
         </is>
       </c>
     </row>
@@ -3054,227 +3058,227 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-157</t>
+          <t>-156820</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-70509</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-200165</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-391801</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-561</t>
+          <t>-560861</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>-284447</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-1120</t>
+          <t>-1120026</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-675</t>
+          <t>-675072</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-711</t>
+          <t>-710654</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-340397</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-1340</t>
+          <t>-1340239</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-941</t>
+          <t>-940561</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-887</t>
+          <t>-886575</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1026</t>
+          <t>-1026230</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-1114</t>
+          <t>-1114153</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-985</t>
+          <t>-985291</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-1076</t>
+          <t>-1076207</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-1127</t>
+          <t>-1126667</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-1230</t>
+          <t>-1229961</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-1206</t>
+          <t>-1205758</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-1212</t>
+          <t>-1211736</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-1223</t>
+          <t>-1222718</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-1909</t>
+          <t>-1909462</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>-1471</t>
+          <t>-1470559</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-1241</t>
+          <t>-1241483</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-1457</t>
+          <t>-1457092</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-1751</t>
+          <t>-1751475</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>-1716</t>
+          <t>-1715762</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>-1386</t>
+          <t>-1386480</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>-1424</t>
+          <t>-1424323</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>-1702</t>
+          <t>-1701890</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>-1812</t>
+          <t>-1812128</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>-1975</t>
+          <t>-1975186</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>-2171</t>
+          <t>-2171299</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-2710</t>
+          <t>-2709699</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>-2073</t>
+          <t>-2072955</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>-2163</t>
+          <t>-2162786</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>-2206</t>
+          <t>-2206246</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>-2539</t>
+          <t>-2538803</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>-2415</t>
+          <t>-2414711</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>-2639</t>
+          <t>-2638659</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>-2946</t>
+          <t>-2946364</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>-2963</t>
+          <t>-2962814</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>-3291</t>
+          <t>-3290881</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>-2505</t>
+          <t>-2504587</t>
         </is>
       </c>
     </row>
@@ -3292,212 +3296,212 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20308</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-116519</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-35100</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-35834</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-87</t>
+          <t>-87350</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-47511</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-42956</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30361</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-91</t>
+          <t>-91326</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-79294</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-90</t>
+          <t>-90034</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-233</t>
+          <t>-233088</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-115</t>
+          <t>-114630</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-237</t>
+          <t>-237212</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-195519</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-202330</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-157</t>
+          <t>-156907</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-222</t>
+          <t>-221791</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-214168</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-259</t>
+          <t>-258789</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-305</t>
+          <t>-305071</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>-108</t>
+          <t>-108454</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-199568</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-586</t>
+          <t>-586394</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-269856</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158777</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>-322</t>
+          <t>-321830</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>-739</t>
+          <t>-739223</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-403559</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>-504</t>
+          <t>-503644</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-171</t>
+          <t>-170564</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-76786</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>-1338</t>
+          <t>-1337815</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>-550</t>
+          <t>-550423</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-252044</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>-101</t>
+          <t>-101165</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>-1827</t>
+          <t>-1827156</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>-802</t>
+          <t>-802346</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>-879</t>
+          <t>-879190</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>-958</t>
+          <t>-957996</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>-928</t>
+          <t>-927857</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>-944</t>
+          <t>-944315</t>
         </is>
       </c>
     </row>
@@ -3512,227 +3516,227 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-173376</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>1235613</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-240</t>
+          <t>-239946</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>399075</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62521</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>489936</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167529</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150434</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>779693</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1009194</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>868466</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>787344</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>906348</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>690129</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>815152</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1761698</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587739</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1575417</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1258437</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1244284</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1533477</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>1510981</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1979857</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2155809</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2316</t>
+          <t>2316161</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1777636</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2351560</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2330702</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>2143596</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009986</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2792129</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2691571</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3299906</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3218522</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3398915</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4501946</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>5623</t>
+          <t>5623204</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4648124</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>2809673</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2626106</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>5404980</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>6741</t>
+          <t>6741136</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6213930</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>8626</t>
+          <t>8626498</t>
         </is>
       </c>
     </row>
@@ -3802,57 +3806,57 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-239272</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-2316</t>
+          <t>-2315820</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>3612058</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1328823</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1854472</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-690</t>
+          <t>-689588</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1255250</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-112</t>
+          <t>-111680</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1097620</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -3860,149 +3864,149 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-106</t>
+          <t>-106000</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106000</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-250</t>
+          <t>-250383</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-199999</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-1100</t>
+          <t>-1099618</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>590000</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>610000</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-100000</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>-496</t>
+          <t>-496125</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-219285</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615410</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94654</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-194654</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>-1151</t>
+          <t>-1151286</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>-1436</t>
+          <t>-1436046</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>-5922</t>
+          <t>-5922498</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>279830</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1626235</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>-3154</t>
+          <t>-3153905</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1662892</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64680</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>863941</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>2188944</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>-2097</t>
+          <t>-2097140</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>-1459</t>
+          <t>-1459381</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1087368</t>
         </is>
       </c>
     </row>
@@ -4017,227 +4021,227 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-3199</t>
+          <t>-3199201</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>646989</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>86382</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-7993</t>
+          <t>-7992960</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-303</t>
+          <t>-302582</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>505652</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-144763</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-1162</t>
+          <t>-1161859</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-5764</t>
+          <t>-5763644</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-4732</t>
+          <t>-4731731</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-1391</t>
+          <t>-1391007</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-3204</t>
+          <t>-3204092</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>4845194</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-10648</t>
+          <t>-10647793</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-7350</t>
+          <t>-7349634</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>8184</t>
+          <t>8184228</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7790</t>
+          <t>7789581</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-8373</t>
+          <t>-8372997</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-2471</t>
+          <t>-2470909</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>4489</t>
+          <t>4489410</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1960032</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-1222</t>
+          <t>-1221905</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>-324584</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-4951</t>
+          <t>-4951096</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>2860645</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-15281</t>
+          <t>-15280952</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-12571</t>
+          <t>-12570993</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>6442</t>
+          <t>6441908</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>-783</t>
+          <t>-782678</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>-6869</t>
+          <t>-6868533</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>-5084</t>
+          <t>-5084099</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>6125298</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>7909</t>
+          <t>7909491</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>3808231</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>8167</t>
+          <t>8167284</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>-9074</t>
+          <t>-9073661</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>7716340</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>-20980</t>
+          <t>-20980453</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>10172</t>
+          <t>10172378</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>-5353</t>
+          <t>-5352966</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>15350</t>
+          <t>15349772</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3023764</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>-7547</t>
+          <t>-7547016</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>-6812</t>
+          <t>-6812081</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>-9514</t>
+          <t>-9513935</t>
         </is>
       </c>
     </row>
@@ -4252,109 +4256,113 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3756</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7662</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25537</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7399</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6254</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38347</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-103266</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87550</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16413</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-60830</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>140400</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-187199</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-98</t>
+          <t>-98220</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84819</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-196957</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>208294</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1650</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr"/>
@@ -4363,72 +4371,72 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-85426</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28815</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48528</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-16070</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16070</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>-206</t>
+          <t>-205729</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205729</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>-110</t>
+          <t>-110079</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14498</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>-257</t>
+          <t>-256515</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>381092</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-40229</t>
         </is>
       </c>
     </row>
@@ -4443,227 +4451,227 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-1731</t>
+          <t>-1731192</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248132</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-2828</t>
+          <t>-2827919</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11880</t>
+          <t>11880007</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>971121</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-6265</t>
+          <t>-6265141</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-2877</t>
+          <t>-2876796</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-9776</t>
+          <t>-9775692</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-5445</t>
+          <t>-5444671</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-2136</t>
+          <t>-2136499</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-8309</t>
+          <t>-8308675</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-5878</t>
+          <t>-5877840</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-8843</t>
+          <t>-8842667</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>335501</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-7887</t>
+          <t>-7887088</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-11389</t>
+          <t>-11389141</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-4452</t>
+          <t>-4451924</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-555</t>
+          <t>-554841</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-2231</t>
+          <t>-2230965</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-5805</t>
+          <t>-5804923</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-8845</t>
+          <t>-8844766</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-2386</t>
+          <t>-2386348</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-6157</t>
+          <t>-6156693</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>-6081</t>
+          <t>-6080698</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>-7967</t>
+          <t>-7966854</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-4091</t>
+          <t>-4090841</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-13860</t>
+          <t>-13860321</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>-8956</t>
+          <t>-8956388</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>-4562</t>
+          <t>-4561592</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>326260</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>-11696</t>
+          <t>-11696088</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>-21943</t>
+          <t>-21942994</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>-12535</t>
+          <t>-12534527</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>-8809</t>
+          <t>-8809462</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>-17358</t>
+          <t>-17358499</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>-24672</t>
+          <t>-24672329</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1173294</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>-4361</t>
+          <t>-4361231</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>-51688</t>
+          <t>-51687646</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>-20045</t>
+          <t>-20045087</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>-22737</t>
+          <t>-22737355</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>-12538</t>
+          <t>-12537721</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>-43760</t>
+          <t>-43760383</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>-3621</t>
+          <t>-3621211</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>-62443</t>
+          <t>-62442790</t>
         </is>
       </c>
     </row>
@@ -4681,212 +4689,212 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20858</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25065</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32750</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12580</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-37353</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-170</t>
+          <t>-170403</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29011</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-425475</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-128</t>
+          <t>-127721</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-116</t>
+          <t>-116425</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-142502</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-173822</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-151771</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>-451154</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-198096</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>-227282</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-230</t>
+          <t>-229634</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-208978</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-257</t>
+          <t>-257297</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-869</t>
+          <t>-869151</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-209169</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>-673</t>
+          <t>-673189</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-362871</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>-650</t>
+          <t>-649816</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>-427</t>
+          <t>-427075</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-378353</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>-279</t>
+          <t>-279255</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>-705</t>
+          <t>-704545</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433588</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>-514</t>
+          <t>-513731</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>-556</t>
+          <t>-555551</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>-916</t>
+          <t>-915965</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>-768</t>
+          <t>-768055</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>-932</t>
+          <t>-932420</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>-847</t>
+          <t>-846600</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>-768</t>
+          <t>-767792</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>-710</t>
+          <t>-710075</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>-973</t>
+          <t>-973446</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>-876</t>
+          <t>-875754</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>-938</t>
+          <t>-938012</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>-1566</t>
+          <t>-1565611</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>-3691</t>
+          <t>-3690973</t>
         </is>
       </c>
     </row>
@@ -4901,227 +4909,227 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-4103</t>
+          <t>-4103499</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-332</t>
+          <t>-331846</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3911944</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393667</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-715</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>1418350</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-794</t>
+          <t>-793813</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>509126</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1137807</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-1116</t>
+          <t>-1116422</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1025970</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34649</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>400157</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187795</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>998030</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>664602</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>644310</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-323</t>
+          <t>-323181</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>726813</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-230</t>
+          <t>-230273</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-943</t>
+          <t>-942939</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1089341</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-3732</t>
+          <t>-3731691</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328809</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365255</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-881</t>
+          <t>-880594</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-3840</t>
+          <t>-3840203</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308606</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>-2109</t>
+          <t>-2109089</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>-2869</t>
+          <t>-2868721</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>-4591</t>
+          <t>-4590927</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>909571</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>-4841</t>
+          <t>-4841178</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>-1906</t>
+          <t>-1905703</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>-7221</t>
+          <t>-7220603</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>206413</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>-638</t>
+          <t>-637877</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>-13757</t>
+          <t>-13756721</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>-473</t>
+          <t>-473174</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>-3364</t>
+          <t>-3363611</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>-544</t>
+          <t>-543738</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>8800756</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>-4756</t>
+          <t>-4755676</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1394018</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>-3042</t>
+          <t>-3041827</t>
         </is>
       </c>
     </row>
@@ -5191,223 +5199,227 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-413</t>
+          <t>-413200</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21613</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5674</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57856</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1033</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6978</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41121</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-2227</t>
+          <t>-2226851</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39707</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29167</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14961</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1873141</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-1898</t>
+          <t>-1897619</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-687</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28765</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020766</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>5759938</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-5731</t>
+          <t>-5731376</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13091</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37647</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-1995912</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393840</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-421224</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-22110</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16886</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12761</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12701</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12435</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12217</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11041</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12201</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10850</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>10763</t>
+          <t>10762694</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>-10785</t>
+          <t>-10785179</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr"/>
+          <t>-5955</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>-295</t>
+        </is>
+      </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3239</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6431</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>819</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3058</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2486</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12422</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17904</t>
         </is>
       </c>
     </row>
@@ -5422,227 +5434,227 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-1513</t>
+          <t>-1512741</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1112189</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2652361</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-3643</t>
+          <t>-3642943</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-6647</t>
+          <t>-6647308</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-137</t>
+          <t>-136761</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-7299</t>
+          <t>-7299290</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1500389</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>3645691</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>2419831</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5523823</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>382629</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5039783</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2461233</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>9649</t>
+          <t>9649068</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>3793478</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-14639</t>
+          <t>-14638784</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3284656</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>11033</t>
+          <t>11032533</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>-6456</t>
+          <t>-6456160</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-311218</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>9022</t>
+          <t>9021829</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>6849805</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>-6549</t>
+          <t>-6548661</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>-10886</t>
+          <t>-10886156</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>9411</t>
+          <t>9410906</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>33406</t>
+          <t>33405967</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>-5307</t>
+          <t>-5306507</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>-9610</t>
+          <t>-9610280</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>21093</t>
+          <t>21093094</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>25891</t>
+          <t>25890702</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>-13769</t>
+          <t>-13768816</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>-7287</t>
+          <t>-7286784</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>13450</t>
+          <t>13450015</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>-6984</t>
+          <t>-6983797</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>4674389</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>-34561</t>
+          <t>-34561247</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>-11229</t>
+          <t>-11228643</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>60549</t>
+          <t>60549279</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>-5078</t>
+          <t>-5077968</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>11678</t>
+          <t>11678404</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>-26384</t>
+          <t>-26384487</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>7158</t>
+          <t>7157652</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>-25782</t>
+          <t>-25782141</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>25591</t>
+          <t>25590900</t>
         </is>
       </c>
     </row>
@@ -5657,227 +5669,227 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10526134</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1961</t>
+          <t>-1960540</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444215</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-6907</t>
+          <t>-6906650</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-4417</t>
+          <t>-4416640</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4025416</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>3690802</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>11543</t>
+          <t>11542887</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7082</t>
+          <t>7081751</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4648352</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5484</t>
+          <t>5484062</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>9577</t>
+          <t>9576752</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2834229</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2405568</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2421149</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-3235</t>
+          <t>-3235370</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>9475</t>
+          <t>9474865</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3189336</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-1906</t>
+          <t>-1906206</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-1366</t>
+          <t>-1365910</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3363396</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-5140</t>
+          <t>-5139704</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1100700</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>6803922</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>16983</t>
+          <t>16982539</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>18638</t>
+          <t>18638420</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>6177</t>
+          <t>6176813</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>10367</t>
+          <t>10367248</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>13546</t>
+          <t>13546420</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>-4104</t>
+          <t>-4104470</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>-11146</t>
+          <t>-11146350</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>18207</t>
+          <t>18206910</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>11030</t>
+          <t>11030068</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>-4739</t>
+          <t>-4739327</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8016406</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>34006</t>
+          <t>34005769</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>59842</t>
+          <t>59842194</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>32068</t>
+          <t>32067845</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>29065</t>
+          <t>29064906</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>8011196</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>7784</t>
+          <t>7784259</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>10445</t>
+          <t>10445323</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>40486</t>
+          <t>40486499</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>27816</t>
+          <t>27816043</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>13379</t>
+          <t>13379021</t>
         </is>
       </c>
     </row>
@@ -5892,227 +5904,227 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-844</t>
+          <t>-844358</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-847</t>
+          <t>-847081</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-874</t>
+          <t>-874340</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>251000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>2796000</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>-102000</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>2091000</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-3169</t>
+          <t>-3168986</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>726987</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-401</t>
+          <t>-401001</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-325986</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-1234</t>
+          <t>-1234014</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-347000</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>4964637</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>339363</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>177000</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-797</t>
+          <t>-797319</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>3616319</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>2281400</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>4985663</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161000</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>3545000</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1119000</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4494194</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-54123</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>-963</t>
+          <t>-962925</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>-2320</t>
+          <t>-2319612</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>11761</t>
+          <t>11760515</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>-657</t>
+          <t>-656743</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>-2995</t>
+          <t>-2994977</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3661370</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>1395877</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>12077</t>
+          <t>12076686</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>-1358</t>
+          <t>-1357902</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>-2748</t>
+          <t>-2747722</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>-1195</t>
+          <t>-1194554</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>-4636</t>
+          <t>-4636270</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>-1709</t>
+          <t>-1709222</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>22775</t>
+          <t>22774511</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>13983</t>
+          <t>13982577</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>7001</t>
+          <t>7000864</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>-4664</t>
+          <t>-4664432</t>
         </is>
       </c>
     </row>
@@ -6130,200 +6142,212 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-57004</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4389</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2576</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2783798</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4226</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6490</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26022</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24594</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39241</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>20774</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>-300</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19567</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61407</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54804</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17853</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12788</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11565</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4620</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44629</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>-39</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr"/>
+          <t>-39188</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-497</t>
+        </is>
+      </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11273</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7300</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7295</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>-101</t>
+          <t>-101338</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15634</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-77269</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47259</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-973</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-45726</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-68587</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9365</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr"/>
+          <t>10357</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>-161</t>
+        </is>
+      </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14908</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60257</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>-158</t>
+          <t>-157830</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89795</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>-58495</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57254</t>
         </is>
       </c>
     </row>
@@ -6348,141 +6372,141 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9326</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-445014</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>445014</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-70098</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27985</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30099</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14262</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8807</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29560</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-21557</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>184110</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>-215</t>
+          <t>-215182</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15550</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29457</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-45007</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>179101</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47379</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>-150</t>
+          <t>-149564</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-76916</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>272222</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>-272</t>
+          <t>-272222</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113837</t>
         </is>
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>-95388</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>261090</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>-280</t>
+          <t>-279539</t>
         </is>
       </c>
     </row>
@@ -6497,227 +6521,227 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59275</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-220</t>
+          <t>-220235</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164476</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205404</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-38674</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-134</t>
+          <t>-134138</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86887</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-82533</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283779</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-229</t>
+          <t>-228814</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207466</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-34282</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4804</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>309260</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98716</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>294213</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-186666</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28701</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-201291</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184970</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>-102018</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8510</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7392</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161264</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14902</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>285868</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>-125</t>
+          <t>-125194</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164509</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-398836</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>615778</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357958</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>-101549</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-490053</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1146085</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>-561</t>
+          <t>-560794</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>349691</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>1061583</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>928426</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>696253</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>2260686</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>-2588</t>
+          <t>-2587695</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2148376</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>-1021</t>
+          <t>-1021404</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>33472</t>
+          <t>33472443</t>
         </is>
       </c>
     </row>
@@ -6732,22 +6756,22 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1197</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1997</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3635</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1664</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -6755,7 +6779,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-534</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -6763,51 +6787,63 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>-2658</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-150</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>-595</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>-197</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>-1364</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>-66</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-881</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1866</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1764</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-688</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-979</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2228</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -6815,84 +6851,88 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2614</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-520</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4300</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3422</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr"/>
+          <t>-2000</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>-290</t>
+        </is>
+      </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4550</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4770</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2381</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7610</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15554</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-625</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-868</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1720</t>
         </is>
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14946</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13272</t>
         </is>
       </c>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4380</t>
         </is>
       </c>
     </row>
@@ -6907,227 +6947,227 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-1325</t>
+          <t>-1325112</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-375546</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>991945</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-2038</t>
+          <t>-2037759</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-8848</t>
+          <t>-8848478</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1890989</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-2244</t>
+          <t>-2244439</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>2918968</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>557601</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>1820747</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1090792</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>4179795</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2833290</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-5123</t>
+          <t>-5123297</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-2277</t>
+          <t>-2276765</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-1663</t>
+          <t>-1663289</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>5467</t>
+          <t>5467195</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-408317</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>12048</t>
+          <t>12048365</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>-15959</t>
+          <t>-15958790</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138782</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>4912</t>
+          <t>4912420</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1977941</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>-7468</t>
+          <t>-7468380</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>6313461</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>10840</t>
+          <t>10839967</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>15275</t>
+          <t>15275096</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>3780627</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>-2574</t>
+          <t>-2574272</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>7233</t>
+          <t>7233243</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>7212821</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>-8667</t>
+          <t>-8667204</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>-7821</t>
+          <t>-7820921</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>6466</t>
+          <t>6466438</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-5697</t>
+          <t>-5697391</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>8559</t>
+          <t>8559063</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>37439</t>
+          <t>37438638</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>-17842</t>
+          <t>-17842240</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>52502</t>
+          <t>52501584</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>-27641</t>
+          <t>-27640637</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>14403</t>
+          <t>14403100</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>10585</t>
+          <t>10584942</t>
         </is>
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>11395</t>
+          <t>11394988</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2364771</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>-1483</t>
+          <t>-1482525</t>
         </is>
       </c>
     </row>
@@ -7197,223 +7237,227 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-189</t>
+          <t>-189153</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>174070</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20486</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-84950</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-43017</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-129</t>
+          <t>-129222</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14212</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4653</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41290</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-212053</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-13023</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5450</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15310</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11564</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20317</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-43695</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-66623</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46285</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-42403</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-45548</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25550</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-69718</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>-97</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr"/>
+          <t>-97381</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-128</t>
+          <t>-127843</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>-57593</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-155122</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-27006</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-50559</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>-121</t>
+          <t>-121213</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6194</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8048</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-52764</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-54995</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25028</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-54250</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-56655</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>-138</t>
+          <t>-137988</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>-112</t>
+          <t>-112206</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>-95318</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>-179</t>
+          <t>-178629</t>
         </is>
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-154995</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41402</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-70019</t>
         </is>
       </c>
     </row>
@@ -7426,127 +7470,223 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20213</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-10107</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12302</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6726</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15531</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13905</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>517</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9117</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31875</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-30672</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12747</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+          <t>98188</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33501</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
+          <t>18634</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
+          <t>2727</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr"/>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>709</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW37" t="inlineStr"/>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7557,55 +7697,79 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-123</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>-739</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-154</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-175</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-83</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21176</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21176</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8978</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2364</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42746</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-42746</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -7615,13 +7779,13 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5309</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1039</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr"/>
@@ -7668,7 +7832,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12769</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -7680,23 +7844,27 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6310</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>-221</t>
+        </is>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11533</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11533</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr"/>
@@ -7737,33 +7905,33 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2320</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8662</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42746</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-42746</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56566</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -7774,12 +7942,12 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25100</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25100</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr"/>
@@ -7787,7 +7955,7 @@
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27003</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr"/>
@@ -7795,7 +7963,7 @@
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24026</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr"/>
@@ -7845,12 +8013,12 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-16378</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41478</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
@@ -7889,57 +8057,57 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-270757</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14074</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-355263</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>722885</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21060</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8528</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-22474</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22474</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -7971,11 +8139,15 @@
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>-658</t>
+          <t>-657639</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>-436</t>
+        </is>
+      </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
     </row>
@@ -7993,74 +8165,74 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299317</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48491</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31742</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16999</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4761</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28348</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54724</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82026</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-72</t>
+          <t>-71739</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>806</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62235</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -8074,22 +8246,22 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18696</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15402</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17677</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr"/>
@@ -8102,23 +8274,23 @@
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14375</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11880</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9000</t>
         </is>
       </c>
     </row>
@@ -8133,101 +8305,113 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115782</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26116</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13695</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>16784</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149344</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-141</t>
+          <t>-140534</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15714</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>26865</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22431</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26111</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27069</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
@@ -8236,25 +8420,25 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17535</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr"/>
@@ -8265,7 +8449,7 @@
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4896</t>
         </is>
       </c>
     </row>
@@ -8280,219 +8464,227 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-188351</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289878</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-54896</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6458</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-439</t>
+          <t>-439107</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>759551</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-31020</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11216</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145718</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-278</t>
+          <t>-277738</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60748</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7796</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14312</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34751</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36719</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-47</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr"/>
+          <t>-47450</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>-258</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110427</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-42403</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74400</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16505</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21099</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>-97</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr"/>
+          <t>-97381</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-116</t>
+          <t>-115878</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-42011</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-155115</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8225</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-35112</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-79379</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30475</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3476</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-52716</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-52268</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19523</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-53971</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-52426</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>-138</t>
+          <t>-137923</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>-112</t>
+          <t>-112067</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>-738</t>
+          <t>-737702</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>-179</t>
+          <t>-178593</t>
         </is>
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-151722</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28813</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-56108</t>
         </is>
       </c>
     </row>
@@ -8576,7 +8768,7 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3018656</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -8598,7 +8790,7 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr"/>
@@ -8612,7 +8804,7 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr"/>
@@ -8639,7 +8831,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>4080000</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -8698,7 +8890,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-970</t>
+          <t>-970000</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -8748,13 +8940,13 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-280757</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-175</t>
+          <t>-174990</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -8763,16 +8955,24 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-810</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+          <t>-809987</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-150</t>
+          <t>-150000</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -8780,10 +8980,14 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-1275</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>-1275300</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -8803,7 +9007,7 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>-2515</t>
+          <t>-2515261</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr"/>
@@ -8812,10 +9016,14 @@
       <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>-2913</t>
-        </is>
-      </c>
-      <c r="AU50" t="inlineStr"/>
+          <t>-2912551</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
     </row>
@@ -8852,17 +9060,29 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158927</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>-345</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+          <t>-344668</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>-56</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
@@ -8916,12 +9136,20 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr"/>
+          <t>32915</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
       <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
@@ -8953,13 +9181,13 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-280757</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-175</t>
+          <t>-174990</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -8968,51 +9196,71 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-810</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>-809987</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3109989</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-150</t>
+          <t>-150000</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3018656</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-1275</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>-1275300</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158927</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>-312</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
+          <t>-311753</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>-155</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
@@ -9020,7 +9268,7 @@
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="AL53" t="inlineStr"/>
@@ -9028,7 +9276,7 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>-2515</t>
+          <t>-2515261</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr"/>
@@ -9037,12 +9285,12 @@
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>-2913</t>
+          <t>-2912551</t>
         </is>
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr"/>
@@ -9059,227 +9307,227 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-1513</t>
+          <t>-1513463</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-366424</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>994878</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-2268</t>
+          <t>-2267645</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-8855</t>
+          <t>-8854936</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1451882</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-1485</t>
+          <t>-1484888</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2887948</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-241170</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1966476</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>3923043</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>4240543</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>2825494</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-5259</t>
+          <t>-5258985</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>776642</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-1627</t>
+          <t>-1626570</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>5420</t>
+          <t>5419745</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-1684</t>
+          <t>-1683875</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>12159</t>
+          <t>12158808</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>-16001</t>
+          <t>-16001193</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213182</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>4896</t>
+          <t>4895915</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1797915</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>-7878</t>
+          <t>-7877514</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>6314</t>
+          <t>6313690</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>10724</t>
+          <t>10724090</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>15233</t>
+          <t>15233055</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>3626</t>
+          <t>3625512</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>-2582</t>
+          <t>-2582497</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7198131</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>7133</t>
+          <t>7133442</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>-8637</t>
+          <t>-8636729</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>-7624</t>
+          <t>-7624397</t>
         </is>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6413722</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>-5750</t>
+          <t>-5749659</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>8540</t>
+          <t>8539540</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>34869</t>
+          <t>34869406</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>-17895</t>
+          <t>-17894666</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>52364</t>
+          <t>52363661</t>
         </is>
       </c>
       <c r="AR54" t="inlineStr">
         <is>
-          <t>-27753</t>
+          <t>-27752704</t>
         </is>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>13665</t>
+          <t>13665398</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>7493798</t>
         </is>
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>11443</t>
+          <t>11443267</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>2335958</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>-1539</t>
+          <t>-1538633</t>
         </is>
       </c>
     </row>
@@ -9294,26 +9542,30 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>4857898</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>8711</t>
+          <t>8710989</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15293</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>15293239</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>14069</t>
+          <t>14069062</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -9321,15 +9573,19 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>22605</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>22605358</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>25189</t>
+          <t>25189053</t>
         </is>
       </c>
       <c r="U55" t="inlineStr"/>
@@ -9337,7 +9593,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>39457</t>
+          <t>39457161</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
@@ -9345,7 +9601,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>30363</t>
+          <t>30362980</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr"/>
@@ -9353,7 +9609,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>54756</t>
+          <t>54756301</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr"/>
@@ -9361,7 +9617,7 @@
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>70131</t>
+          <t>70130889</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr"/>
@@ -9369,7 +9625,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>54534</t>
+          <t>54533826</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr"/>
@@ -9377,7 +9633,7 @@
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr">
         <is>
-          <t>132412</t>
+          <t>132411767</t>
         </is>
       </c>
       <c r="AS55" t="inlineStr"/>
@@ -9385,7 +9641,7 @@
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>137262</t>
+          <t>137261526</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr"/>
@@ -9409,187 +9665,187 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18570</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14042</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2131</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1879</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32945</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36955</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37605</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19961</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1020</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16624</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-813</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9091</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19370</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4211</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12636</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27795</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29923</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8029</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26634</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-64586</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13793</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27586</t>
         </is>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-23525</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37318</t>
         </is>
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18963</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2929</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41286</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-57320</t>
         </is>
       </c>
       <c r="AR56" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>87381</t>
         </is>
       </c>
       <c r="AS56" t="inlineStr">
         <is>
-          <t>-116</t>
+          <t>-115524</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126899</t>
         </is>
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>-99</t>
+          <t>-98756</t>
         </is>
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30876</t>
         </is>
       </c>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>-57853</t>
         </is>
       </c>
     </row>
@@ -9604,227 +9860,227 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3344435</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-366424</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>994878</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>6443344</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>6438</t>
+          <t>6438303</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1451881</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>-1485</t>
+          <t>-1484888</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>16957</t>
+          <t>16957010</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-237</t>
+          <t>-236642</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1947906</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>3937</t>
+          <t>3937085</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>26844</t>
+          <t>26843770</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2823616</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-5292</t>
+          <t>-5291930</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>813597</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>23600</t>
+          <t>23600088</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>5399784</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>-1685</t>
+          <t>-1684895</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>12142</t>
+          <t>12142184</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>23464</t>
+          <t>23464025</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212369</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>4897762</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1788824</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>22505</t>
+          <t>22504836</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>6309479</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>10737</t>
+          <t>10736726</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>15205</t>
+          <t>15205260</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>58412</t>
+          <t>58411736</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>-2574</t>
+          <t>-2574468</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>7225</t>
+          <t>7224765</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>7069</t>
+          <t>7068856</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>61508</t>
+          <t>61507953</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>-7652</t>
+          <t>-7651983</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>6390</t>
+          <t>6390197</t>
         </is>
       </c>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>-5712</t>
+          <t>-5712341</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>63092</t>
+          <t>63092329</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>34866</t>
+          <t>34866477</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>-17853</t>
+          <t>-17853380</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>52306</t>
+          <t>52306341</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
         <is>
-          <t>104746</t>
+          <t>104746444</t>
         </is>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
-          <t>13550</t>
+          <t>13549874</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>7621</t>
+          <t>7620697</t>
         </is>
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>11345</t>
+          <t>11344511</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>139628</t>
+          <t>139628360</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>-1596</t>
+          <t>-1596486</t>
         </is>
       </c>
     </row>
